--- a/US_Pathway/Tokens Paid.xlsx
+++ b/US_Pathway/Tokens Paid.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhe\Desktop\Internship-FUTURENSE\US_Pathway\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED738432-B731-458A-9942-7C94A3A19B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2165,11 +2184,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2233,13 +2252,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2277,7 +2304,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2311,6 +2338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2345,9 +2373,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2520,14 +2549,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="48.1796875" customWidth="1"/>
+    <col min="10" max="10" width="53.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2562,7 +2597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2585,7 +2620,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2646,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2637,7 +2672,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +2753,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2779,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2770,7 +2805,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2796,7 +2831,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2822,7 +2857,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2848,7 +2883,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2874,7 +2909,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2903,7 +2938,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +2964,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2958,7 +2993,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2984,7 +3019,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3010,7 +3045,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3042,7 +3077,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3074,7 +3109,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3100,7 +3135,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3126,7 +3161,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3155,7 +3190,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3184,7 +3219,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3210,7 +3245,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3242,7 +3277,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3268,7 +3303,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3294,7 +3329,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3323,7 +3358,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3355,7 +3390,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3381,7 +3416,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3410,7 +3445,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3439,7 +3474,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3471,7 +3506,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3503,7 +3538,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3535,7 +3570,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3564,7 +3599,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3596,7 +3631,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3625,7 +3660,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3657,7 +3692,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3689,7 +3724,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3721,7 +3756,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3753,7 +3788,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3820,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3817,7 +3852,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3846,7 +3881,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3875,7 +3910,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -3901,7 +3936,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -3930,7 +3965,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -3959,7 +3994,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3985,7 +4020,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4017,7 +4052,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -4046,7 +4081,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -4075,7 +4110,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4107,7 +4142,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4136,7 +4171,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -4162,7 +4197,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -4188,7 +4223,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4217,7 +4252,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4246,7 +4281,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -4275,7 +4310,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -4307,7 +4342,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4336,7 +4371,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4365,7 +4400,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -4394,7 +4429,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -4423,7 +4458,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -4452,7 +4487,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -4481,7 +4516,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -4510,7 +4545,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4539,7 +4574,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -4568,7 +4603,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -4597,7 +4632,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -4626,7 +4661,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -4658,7 +4693,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -4687,7 +4722,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -4716,7 +4751,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -4745,7 +4780,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -4774,7 +4809,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -4803,7 +4838,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -4832,7 +4867,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -4861,7 +4896,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -4893,7 +4928,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -4922,7 +4957,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -4951,7 +4986,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -4980,7 +5015,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -5009,7 +5044,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -5041,7 +5076,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -5070,7 +5105,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -5102,7 +5137,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -5131,7 +5166,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -5160,7 +5195,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -5189,7 +5224,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -5218,7 +5253,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -5247,7 +5282,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -5273,7 +5308,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -5302,7 +5337,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -5328,7 +5363,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -5357,7 +5392,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -5383,7 +5418,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -5412,7 +5447,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -5441,7 +5476,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -5470,7 +5505,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -5499,7 +5534,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -5528,7 +5563,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -5557,7 +5592,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -5586,7 +5621,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -5615,7 +5650,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -5644,7 +5679,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -5673,7 +5708,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -5699,7 +5734,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -5728,7 +5763,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -5757,7 +5792,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -5789,7 +5824,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -5821,7 +5856,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -5850,7 +5885,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -5879,7 +5914,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -5908,7 +5943,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -5940,7 +5975,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -5969,7 +6004,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -5998,7 +6033,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -6030,7 +6065,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -6059,7 +6094,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -6091,7 +6126,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -6120,7 +6155,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -6152,7 +6187,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -6184,7 +6219,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -6216,7 +6251,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -6248,7 +6283,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -6280,7 +6315,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -6312,7 +6347,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -6341,7 +6376,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -6373,7 +6408,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -6402,7 +6437,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>91</v>
       </c>
@@ -6431,7 +6466,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -6457,7 +6492,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -6486,7 +6521,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -6515,7 +6550,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -6544,7 +6579,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -6573,7 +6608,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -6602,7 +6637,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -6631,7 +6666,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -6663,7 +6698,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -6692,7 +6727,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -6721,7 +6756,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -6750,7 +6785,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -6782,7 +6817,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>126</v>
       </c>
@@ -6814,7 +6849,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -6846,7 +6881,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -6878,7 +6913,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -6910,7 +6945,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -6942,7 +6977,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -6974,7 +7009,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -7006,7 +7041,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -7038,7 +7073,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -7067,7 +7102,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -7099,7 +7134,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -7131,7 +7166,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -7163,7 +7198,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -7195,7 +7230,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -7224,7 +7259,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -7256,7 +7291,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -7288,7 +7323,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -7314,7 +7349,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -7346,7 +7381,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -7378,7 +7413,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -7410,7 +7445,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -7442,7 +7477,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -7471,7 +7506,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -7503,7 +7538,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -7535,7 +7570,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -7567,7 +7602,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>127</v>
       </c>
@@ -7599,7 +7634,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7628,7 +7663,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>84</v>
       </c>
@@ -7660,7 +7695,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -7692,7 +7727,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -7724,7 +7759,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -7753,7 +7788,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -7785,7 +7820,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>47</v>
       </c>
@@ -7817,7 +7852,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -7849,7 +7884,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -7878,7 +7913,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -7904,7 +7939,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>179</v>
       </c>
@@ -7936,7 +7971,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -7965,7 +8000,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -7994,7 +8029,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -8023,7 +8058,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -8052,7 +8087,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -8081,7 +8116,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>183</v>
       </c>
@@ -8113,7 +8148,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -8145,7 +8180,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -8171,7 +8206,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -8203,7 +8238,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>185</v>
       </c>
@@ -8235,7 +8270,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>186</v>
       </c>
@@ -8264,7 +8299,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -8296,7 +8331,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>188</v>
       </c>
@@ -8328,7 +8363,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>189</v>
       </c>
@@ -8360,7 +8395,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>190</v>
       </c>
@@ -8392,7 +8427,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>191</v>
       </c>
@@ -8421,7 +8456,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>186</v>
       </c>
@@ -8453,7 +8488,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>192</v>
       </c>
@@ -8485,7 +8520,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>193</v>
       </c>
@@ -8514,7 +8549,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>194</v>
       </c>
@@ -8546,7 +8581,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>195</v>
       </c>
@@ -8575,7 +8610,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>137</v>
       </c>
@@ -8604,7 +8639,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>196</v>
       </c>
@@ -8636,7 +8671,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>95</v>
       </c>
@@ -8662,7 +8697,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>197</v>
       </c>
@@ -8694,7 +8729,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>198</v>
       </c>
@@ -8726,7 +8761,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>199</v>
       </c>
@@ -8755,7 +8790,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>200</v>
       </c>
@@ -8787,7 +8822,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>201</v>
       </c>
@@ -8819,7 +8854,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>202</v>
       </c>
@@ -8848,7 +8883,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>203</v>
       </c>
@@ -8880,7 +8915,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>204</v>
       </c>
@@ -8912,7 +8947,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>128</v>
       </c>
@@ -8944,7 +8979,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>205</v>
       </c>
@@ -8973,7 +9008,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>206</v>
       </c>
@@ -9005,7 +9040,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>207</v>
       </c>
@@ -9037,7 +9072,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>208</v>
       </c>
@@ -9069,7 +9104,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>209</v>
       </c>
@@ -9101,7 +9136,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>210</v>
       </c>
@@ -9133,7 +9168,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>211</v>
       </c>
@@ -9162,7 +9197,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>212</v>
       </c>
@@ -9194,7 +9229,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>213</v>
       </c>
@@ -9226,7 +9261,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>214</v>
       </c>
@@ -9258,7 +9293,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>215</v>
       </c>
@@ -9290,7 +9325,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>216</v>
       </c>
@@ -9322,7 +9357,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>217</v>
       </c>
@@ -9354,7 +9389,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>218</v>
       </c>
@@ -9383,7 +9418,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>219</v>
       </c>
@@ -9412,7 +9447,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>220</v>
       </c>
@@ -9444,7 +9479,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>221</v>
       </c>
@@ -9476,7 +9511,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>166</v>
       </c>
@@ -9505,7 +9540,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>222</v>
       </c>
@@ -9537,7 +9572,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>223</v>
       </c>
@@ -9569,7 +9604,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>224</v>
       </c>
@@ -9601,7 +9636,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>225</v>
       </c>
@@ -9633,7 +9668,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -9665,7 +9700,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>93</v>
       </c>
@@ -9697,7 +9732,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>227</v>
       </c>
@@ -9729,7 +9764,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>228</v>
       </c>
@@ -9761,7 +9796,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>229</v>
       </c>
@@ -9790,7 +9825,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>230</v>
       </c>
@@ -9822,7 +9857,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>231</v>
       </c>
@@ -9854,7 +9889,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>232</v>
       </c>
@@ -9883,7 +9918,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>233</v>
       </c>
@@ -9912,7 +9947,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>234</v>
       </c>
@@ -9944,7 +9979,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>235</v>
       </c>
@@ -9973,7 +10008,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>236</v>
       </c>
@@ -10005,7 +10040,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>237</v>
       </c>
@@ -10034,7 +10069,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>238</v>
       </c>
@@ -10063,7 +10098,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>239</v>
       </c>
@@ -10095,7 +10130,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>240</v>
       </c>
@@ -10127,7 +10162,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>241</v>
       </c>
@@ -10156,7 +10191,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>242</v>
       </c>
@@ -10188,7 +10223,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>243</v>
       </c>
@@ -10220,7 +10255,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>39</v>
       </c>
@@ -10249,7 +10284,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>176</v>
       </c>
@@ -10278,7 +10313,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>244</v>
       </c>
@@ -10310,7 +10345,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>166</v>
       </c>
@@ -10336,7 +10371,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>245</v>
       </c>
@@ -10368,7 +10403,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>246</v>
       </c>
@@ -10400,7 +10435,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>247</v>
       </c>
@@ -10432,7 +10467,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>248</v>
       </c>
@@ -10464,7 +10499,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>207</v>
       </c>
@@ -10496,7 +10531,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>249</v>
       </c>
@@ -10528,7 +10563,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>250</v>
       </c>
